--- a/pilotos.xlsx
+++ b/pilotos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Clasica" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="116">
   <si>
     <t xml:space="preserve"> N°</t>
   </si>
@@ -285,6 +285,9 @@
     <t xml:space="preserve">M. Benz S280 SEC</t>
   </si>
   <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
     <t xml:space="preserve">CASTELLARIN, Federico – CASTELLARIN, Alvaro</t>
   </si>
   <si>
@@ -303,6 +306,9 @@
     <t xml:space="preserve">M. Benz A 250</t>
   </si>
   <si>
+    <t xml:space="preserve">FERNANDEZ, Nestor</t>
+  </si>
+  <si>
     <t xml:space="preserve">25</t>
   </si>
   <si>
@@ -340,9 +346,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alfa Romeo 145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45</t>
   </si>
   <si>
     <t xml:space="preserve">GARCIA, Armando – FRANCIA, Adriana</t>
@@ -644,7 +647,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -750,7 +753,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2</v>
@@ -773,7 +776,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
         <v>2</v>
@@ -819,7 +822,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="n">
         <v>2</v>
@@ -842,7 +845,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="n">
         <v>2</v>
@@ -1550,7 +1553,7 @@
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1722,10 +1725,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1802,7 +1805,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2</v>
@@ -1822,7 +1825,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2</v>
@@ -1968,13 +1971,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>1999</v>
@@ -1988,10 +1991,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>31</v>
@@ -2009,10 +2012,10 @@
         <v>77</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>2014</v>
@@ -2040,7 +2043,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="n">
         <v>2</v>
@@ -2116,6 +2119,20 @@
       </c>
       <c r="F19" s="3" t="n">
         <v>1979</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2136,8 +2153,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2180,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
@@ -2200,13 +2217,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>2004</v>
@@ -2214,13 +2231,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>15</v>
@@ -2234,13 +2251,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>23</v>
@@ -2263,10 +2280,10 @@
         <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1985</v>
@@ -2280,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>19</v>
@@ -2300,7 +2317,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
@@ -2320,13 +2337,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1993</v>
@@ -2340,7 +2357,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>29</v>
@@ -2356,13 +2373,17 @@
       <c r="A11" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="D11" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>2005</v>
@@ -2399,10 +2420,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>1997</v>
@@ -2427,7 +2448,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.50390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2530,13 +2551,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1992</v>
@@ -2553,10 +2574,10 @@
         <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1994</v>
@@ -2570,13 +2591,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1999</v>
@@ -2610,10 +2631,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>31</v>
@@ -2628,10 +2649,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>31</v>
@@ -2648,10 +2669,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>48</v>
@@ -2671,10 +2692,10 @@
         <v>77</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>2014</v>
@@ -2691,10 +2712,10 @@
         <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3"/>
     </row>
